--- a/planning_documentation.xlsx
+++ b/planning_documentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Components</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">elaine </t>
   </si>
   <si>
-    <t>logistic regression, naïve bayes</t>
-  </si>
-  <si>
     <t>raphael</t>
   </si>
   <si>
@@ -86,12 +83,6 @@
     <t>slides</t>
   </si>
   <si>
-    <t>chenyze, elaine</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
     <t>bagged trees, KNN, logreg, voting classifier</t>
   </si>
   <si>
@@ -102,6 +93,12 @@
   </si>
   <si>
     <t>readme</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>logistic regression, naïve bayes, XGBoost</t>
   </si>
 </sst>
 </file>
@@ -145,16 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -450,11 +450,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -465,7 +465,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -494,98 +494,98 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
